--- a/datascience.xlsx
+++ b/datascience.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MUSA\Desktop\woking_dir\datascience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4010F4A4-1CE8-42D8-AE81-E3B993A24F02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C137CC00-D483-43B3-B640-C366D3FF7C7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7530" xr2:uid="{0C43B24C-6732-41DA-B007-16EFBEB3761E}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7530" xr2:uid="{0C43B24C-6732-41DA-B007-16EFBEB3761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>gggg</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>এখানে একটি ঘটনা উল্লেখ করা হয়েছে, যেখানে চারটি কয়েন টস করা হয়েছে ১০১ বার। যা টেবিলে দেয়া হয়েছে</t>
+  </si>
+  <si>
+    <t xml:space="preserve">হেড যত বার দেখা যায় </t>
+  </si>
+  <si>
+    <t>ফ্রিকুয়েন্সি</t>
   </si>
 </sst>
 </file>
@@ -118,11 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +452,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +460,7 @@
     <col min="3" max="3" width="9.140625" style="3"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="14.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="61.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -514,27 +526,27 @@
         <v>0.34560000000000002</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G5" si="0">F2*100</f>
+        <f>F2*100</f>
         <v>34.56</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:H5" si="1">ROUND(G2,0)</f>
+        <f t="shared" ref="H2:H5" si="0">ROUND(G2,0)</f>
         <v>35</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K5" si="2">E2*H2</f>
+        <f>E2*H2</f>
         <v>35</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N5" si="3">COMBIN(4,E2)*($L$11)^E2*($M$11)^(4-E2)</f>
+        <f>COMBIN(4,E2)*($L$11)^E2*($M$11)^(4-E2)</f>
         <v>0.34474314826059527</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O5" si="4">N2*101</f>
+        <f t="shared" ref="O2:O5" si="1">N2*101</f>
         <v>34.819057974320124</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P5" si="5">ROUND(O2,0)</f>
+        <f t="shared" ref="P2:P5" si="2">ROUND(O2,0)</f>
         <v>35</v>
       </c>
     </row>
@@ -546,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C5" si="6">0.6^3*0.4</f>
+        <f t="shared" ref="C3:C5" si="3">0.6^3*0.4</f>
         <v>8.6400000000000005E-2</v>
       </c>
       <c r="E3" s="1">
@@ -557,27 +569,27 @@
         <v>0.34560000000000002</v>
       </c>
       <c r="G3" s="3">
+        <f>F3*100</f>
+        <v>34.56</v>
+      </c>
+      <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>34.56</v>
-      </c>
-      <c r="H3" s="1">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <f>E3*H3</f>
+        <v>70</v>
+      </c>
+      <c r="N3">
+        <f>COMBIN(4,E3)*($L$11)^E3*($M$11)^(4-E3)</f>
+        <v>0.34616770672448205</v>
+      </c>
+      <c r="O3">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="K3">
+        <v>34.962938379172684</v>
+      </c>
+      <c r="P3">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="3"/>
-        <v>0.34616770672448205</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="4"/>
-        <v>34.962938379172684</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="5"/>
         <v>35</v>
       </c>
     </row>
@@ -589,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8.6400000000000005E-2</v>
       </c>
       <c r="E4" s="1">
@@ -600,27 +612,27 @@
         <v>0.15360000000000004</v>
       </c>
       <c r="G4" s="3">
+        <f>F4*100</f>
+        <v>15.360000000000005</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>15.360000000000005</v>
-      </c>
-      <c r="H4" s="1">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <f>E4*H4</f>
+        <v>45</v>
+      </c>
+      <c r="N4">
+        <f>COMBIN(4,E4)*($L$11)^E4*($M$11)^(4-E4)</f>
+        <v>0.15448806746381846</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K4">
+        <v>15.603294813845665</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="3"/>
-        <v>0.15448806746381846</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="4"/>
-        <v>15.603294813845665</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
     </row>
@@ -632,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>8.6400000000000005E-2</v>
       </c>
       <c r="E5" s="1">
@@ -643,27 +655,27 @@
         <v>2.5600000000000012E-2</v>
       </c>
       <c r="G5" s="3">
+        <f>F5*100</f>
+        <v>2.5600000000000014</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>2.5600000000000014</v>
-      </c>
-      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f>E5*H5</f>
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <f>COMBIN(4,E5)*($L$11)^E5*($M$11)^(4-E5)</f>
+        <v>2.5854407984647308E-2</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="K5">
+        <v>2.6112952064493782</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
-        <v>2.5854407984647308E-2</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="4"/>
-        <v>2.6112952064493782</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -687,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <f t="shared" ref="C7:C11" si="7">0.6^2*0.4^2</f>
+        <f t="shared" ref="C7:C11" si="4">0.6^2*0.4^2</f>
         <v>5.7600000000000012E-2</v>
       </c>
       <c r="G7" s="3">
@@ -715,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.7600000000000012E-2</v>
       </c>
       <c r="J8" s="3"/>
@@ -728,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.7600000000000012E-2</v>
       </c>
       <c r="J9" s="1"/>
@@ -741,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.7600000000000012E-2</v>
       </c>
       <c r="J10" s="1"/>
@@ -761,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>5.7600000000000012E-2</v>
       </c>
       <c r="J11" s="1"/>
@@ -790,7 +802,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -798,9 +810,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" ref="C13:C15" si="8">0.4^3*0.6</f>
+        <f t="shared" ref="C13:C15" si="5">0.4^3*0.6</f>
         <v>3.8400000000000011E-2</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -810,8 +826,14 @@
         <v>3</v>
       </c>
       <c r="C14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3.8400000000000011E-2</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -822,8 +844,14 @@
         <v>3</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3.8400000000000011E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -837,8 +865,30 @@
         <f>0.4^4</f>
         <v>2.5600000000000012E-2</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
+        <v>2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
         <f>SUM(C1:C16)</f>
         <v>1</v>
@@ -846,12 +896,21 @@
       <c r="F19" s="2">
         <f>SUM(F1:F5)</f>
         <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:B16">
     <sortCondition ref="B17"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="G13:H13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>